--- a/data/projected_effort.xlsx
+++ b/data/projected_effort.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/jacob_cochran_fws_gov/Documents/Early Detection Monitoring/Implementation_Planning/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/colleen_keefer_fws_gov/Documents/Desktop/Automation tool github/Implementation_Planning/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8B67BDC-2A15-4B69-8CE7-68D174EE1FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{E8B67BDC-2A15-4B69-8CE7-68D174EE1FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D41A1B9F-E28F-4936-9F20-85DB3DCF0819}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6ACA3146-90F7-463A-8DB8-CF9C56339AC4}"/>
+    <workbookView xWindow="38280" yWindow="2835" windowWidth="29040" windowHeight="15720" xr2:uid="{6ACA3146-90F7-463A-8DB8-CF9C56339AC4}"/>
   </bookViews>
   <sheets>
     <sheet name="projected_effort" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="42">
   <si>
     <t>Location</t>
   </si>
@@ -34,12 +34,6 @@
     <t>Basin</t>
   </si>
   <si>
-    <t>Fish Rank</t>
-  </si>
-  <si>
-    <t>Invert Rank</t>
-  </si>
-  <si>
     <t>Priority</t>
   </si>
   <si>
@@ -58,6 +52,90 @@
     <t>Electrofish</t>
   </si>
   <si>
+    <t>Buffalo, NY</t>
+  </si>
+  <si>
+    <t>Lake Erie</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Early Detection Monitoring</t>
+  </si>
+  <si>
+    <t>Rochester, NY</t>
+  </si>
+  <si>
+    <t>Lake Ontario</t>
+  </si>
+  <si>
+    <t>Oswego, NY</t>
+  </si>
+  <si>
+    <t>Erie, PA</t>
+  </si>
+  <si>
+    <t>North Tonawanda, NY</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>Upper Niagara River, NY/ON</t>
+  </si>
+  <si>
+    <t>Sodus Bay, NY</t>
+  </si>
+  <si>
+    <t>Thousand Islands, NY/ON</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Dunkirk, NY</t>
+  </si>
+  <si>
+    <t>Lower Niagara River, NY/ON</t>
+  </si>
+  <si>
+    <t>Oak Orchard Creek, NY</t>
+  </si>
+  <si>
+    <t>Cattaragaus Creek, NY</t>
+  </si>
+  <si>
+    <t>Massena, NY/ON</t>
+  </si>
+  <si>
+    <t>Targeted</t>
+  </si>
+  <si>
+    <t>Braddock Bay, NY</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Eighteen Mile Creek, NY</t>
+  </si>
+  <si>
+    <t>Salmon River Estuary, NY</t>
+  </si>
+  <si>
+    <t>Port Bay, NY</t>
+  </si>
+  <si>
+    <t>Little Sodus Bay, NY</t>
+  </si>
+  <si>
+    <t>Fish_Rank</t>
+  </si>
+  <si>
+    <t>Invert_Rank</t>
+  </si>
+  <si>
     <t>Fyke Net</t>
   </si>
   <si>
@@ -68,94 +146,13 @@
   </si>
   <si>
     <t>Sweep Net</t>
-  </si>
-  <si>
-    <t>Buffalo, NY</t>
-  </si>
-  <si>
-    <t>Lake Erie</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Early Detection Monitoring</t>
-  </si>
-  <si>
-    <t>Rochester, NY</t>
-  </si>
-  <si>
-    <t>Lake Ontario</t>
-  </si>
-  <si>
-    <t>Oswego, NY</t>
-  </si>
-  <si>
-    <t>Erie, PA</t>
-  </si>
-  <si>
-    <t>North Tonawanda, NY</t>
-  </si>
-  <si>
-    <t>Moderate</t>
-  </si>
-  <si>
-    <t>Upper Niagara River, NY/ON</t>
-  </si>
-  <si>
-    <t>Sodus Bay, NY</t>
-  </si>
-  <si>
-    <t>Thousand Islands, NY/ON</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Dunkirk, NY</t>
-  </si>
-  <si>
-    <t>Lower Niagara River, NY/ON</t>
-  </si>
-  <si>
-    <t>Oak Orchard Creek, NY</t>
-  </si>
-  <si>
-    <t>Cattaragaus Creek, NY</t>
-  </si>
-  <si>
-    <t>Massena, NY/ON</t>
-  </si>
-  <si>
-    <t>Targeted</t>
-  </si>
-  <si>
-    <t>Braddock Bay, NY</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Eighteen Mile Creek, NY</t>
-  </si>
-  <si>
-    <t>Salmon River Estuary, NY</t>
-  </si>
-  <si>
-    <t>Port Bay, NY</t>
-  </si>
-  <si>
-    <t>Little Sodus Bay, NY</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -690,6 +687,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1009,33 +1010,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954594C5-8BE9-4471-9822-FA3B98D60D86}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.875" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1049,45 +1050,45 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" t="s">
-        <v>16</v>
       </c>
       <c r="B2">
         <v>42.875659810000002</v>
@@ -1096,7 +1097,7 @@
         <v>-78.875949579999997</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -1105,10 +1106,10 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I2">
         <v>40</v>
@@ -1117,7 +1118,7 @@
         <v>50</v>
       </c>
       <c r="K2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>20</v>
@@ -1129,15 +1130,15 @@
         <v>10</v>
       </c>
       <c r="O2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>43.253931999999999</v>
@@ -1146,7 +1147,7 @@
         <v>-77.573269999999994</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -1155,10 +1156,10 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I3">
         <v>60</v>
@@ -1167,7 +1168,7 @@
         <v>50</v>
       </c>
       <c r="K3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>30</v>
@@ -1179,15 +1180,15 @@
         <v>15</v>
       </c>
       <c r="O3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>43.463628999999997</v>
@@ -1196,7 +1197,7 @@
         <v>-76.520600000000002</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -1205,10 +1206,10 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I4">
         <v>40</v>
@@ -1217,7 +1218,7 @@
         <v>50</v>
       </c>
       <c r="K4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>20</v>
@@ -1229,15 +1230,15 @@
         <v>15</v>
       </c>
       <c r="O4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>42.136245520000003</v>
@@ -1246,7 +1247,7 @@
         <v>-80.099798649999997</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>27</v>
@@ -1255,10 +1256,10 @@
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I5">
         <v>40</v>
@@ -1267,7 +1268,7 @@
         <v>30</v>
       </c>
       <c r="K5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>20</v>
@@ -1279,15 +1280,15 @@
         <v>10</v>
       </c>
       <c r="O5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>43.035739139999997</v>
@@ -1296,7 +1297,7 @@
         <v>-78.842143460000003</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>29</v>
@@ -1305,10 +1306,10 @@
         <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I6">
         <v>40</v>
@@ -1326,9 +1327,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>43.027583540000002</v>
@@ -1337,7 +1338,7 @@
         <v>-78.988743009999993</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>54</v>
@@ -1346,10 +1347,10 @@
         <v>67</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I7">
         <v>40</v>
@@ -1364,9 +1365,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>43.2648911</v>
@@ -1375,7 +1376,7 @@
         <v>-76.98096074</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>57</v>
@@ -1384,18 +1385,18 @@
         <v>64</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J8">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>44.250826000000004</v>
@@ -1404,7 +1405,7 @@
         <v>-76.087418</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>71</v>
@@ -1413,15 +1414,15 @@
         <v>68</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B10">
         <v>42.487721780000001</v>
@@ -1430,7 +1431,7 @@
         <v>-79.331886679999997</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E10">
         <v>76</v>
@@ -1439,18 +1440,18 @@
         <v>77</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J10">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <v>43.233587</v>
@@ -1459,7 +1460,7 @@
         <v>-79.054096999999999</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>81</v>
@@ -1468,15 +1469,15 @@
         <v>86</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>43.364257000000002</v>
@@ -1485,7 +1486,7 @@
         <v>-78.192469000000003</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>84</v>
@@ -1494,15 +1495,15 @@
         <v>101</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B13">
         <v>42.567559340000003</v>
@@ -1511,7 +1512,7 @@
         <v>-79.115413599999997</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E13">
         <v>94</v>
@@ -1520,18 +1521,18 @@
         <v>126</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J13">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B14">
         <v>45.002239000000003</v>
@@ -1540,7 +1541,7 @@
         <v>-74.792409000000006</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>124</v>
@@ -1549,15 +1550,15 @@
         <v>189</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>42.875659810000002</v>
@@ -1566,7 +1567,7 @@
         <v>-78.875949579999997</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1575,18 +1576,18 @@
         <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J15">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>43.253931999999999</v>
@@ -1595,7 +1596,7 @@
         <v>-77.573269999999994</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>5</v>
@@ -1604,18 +1605,18 @@
         <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J16">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>43.307336999999997</v>
@@ -1624,7 +1625,7 @@
         <v>-77.717062999999996</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>5</v>
@@ -1633,15 +1634,15 @@
         <v>16</v>
       </c>
       <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" t="s">
         <v>29</v>
       </c>
-      <c r="H17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>43.464136000000003</v>
@@ -1650,7 +1651,7 @@
         <v>-76.521203</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>6</v>
@@ -1659,18 +1660,18 @@
         <v>22</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J18">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>42.136245520000003</v>
@@ -1679,7 +1680,7 @@
         <v>-80.099798649999997</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E19">
         <v>27</v>
@@ -1688,15 +1689,15 @@
         <v>25</v>
       </c>
       <c r="G19" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>43.035739139999997</v>
@@ -1705,7 +1706,7 @@
         <v>-78.842143460000003</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E20">
         <v>29</v>
@@ -1714,18 +1715,18 @@
         <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J20">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>43.265535999999997</v>
@@ -1734,7 +1735,7 @@
         <v>-76.967893000000004</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>56</v>
@@ -1743,15 +1744,18 @@
         <v>58</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>29</v>
+      </c>
+      <c r="J21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>42.487721780000001</v>
@@ -1760,7 +1764,7 @@
         <v>-79.331886679999997</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E22">
         <v>76</v>
@@ -1769,15 +1773,15 @@
         <v>77</v>
       </c>
       <c r="G22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>25</v>
-      </c>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" t="s">
-        <v>31</v>
       </c>
       <c r="B23">
         <v>43.233587</v>
@@ -1786,7 +1790,7 @@
         <v>-79.054096999999999</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>81</v>
@@ -1795,18 +1799,18 @@
         <v>86</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H23" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>43.364257000000002</v>
@@ -1815,7 +1819,7 @@
         <v>-78.192469000000003</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>84</v>
@@ -1824,18 +1828,18 @@
         <v>101</v>
       </c>
       <c r="G24" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J24">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>42.567559340000003</v>
@@ -1844,7 +1848,7 @@
         <v>-79.115413599999997</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E25">
         <v>94</v>
@@ -1853,15 +1857,15 @@
         <v>126</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>45.002239000000003</v>
@@ -1870,7 +1874,7 @@
         <v>-74.792409000000006</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>124</v>
@@ -1879,10 +1883,10 @@
         <v>189</v>
       </c>
       <c r="G26" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I26">
         <v>60</v>
@@ -1894,9 +1898,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>43.33813</v>
@@ -1905,21 +1909,21 @@
         <v>-78.718518000000003</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G27" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J27">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>43.569085999999999</v>
@@ -1928,21 +1932,21 @@
         <v>-76.203276000000002</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G28" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H28" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J28">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B29">
         <v>43.300778999999999</v>
@@ -1951,18 +1955,18 @@
         <v>-76.836208999999997</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" t="s">
         <v>29</v>
       </c>
-      <c r="H29" t="s">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" t="s">
-        <v>41</v>
       </c>
       <c r="B30">
         <v>43.330714999999998</v>
@@ -1971,21 +1975,13 @@
         <v>-76.705862999999994</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" t="s">
         <v>29</v>
-      </c>
-      <c r="H30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="H31" t="s">
-        <v>42</v>
-      </c>
-      <c r="J31">
-        <v>500</v>
       </c>
     </row>
   </sheetData>
